--- a/Género/Violencia contra Mujer/Centros de la Mujer.xlsx
+++ b/Género/Violencia contra Mujer/Centros de la Mujer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Desktop\DI\00 Datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Género\Violencia contra Mujer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD1492F-98DD-477E-8C51-209285069B64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F1777A-980B-41FB-A741-B475C71CD4C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{D68607EF-13EF-4173-AE01-6B598A258A5A}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="1120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="1124">
   <si>
     <t>Región</t>
   </si>
@@ -3390,13 +3390,25 @@
   </si>
   <si>
     <t>San Juan de la Costa</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Alcalde/sa 2016-2020</t>
+  </si>
+  <si>
+    <t>Alcalde/sa 2021-2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3415,6 +3427,12 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3506,7 +3524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3526,11 +3544,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3541,6 +3636,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{83581875-578B-46F3-9E51-6B7C6929DEA6}" name="Centros_Mujer_Comunas" displayName="Centros_Mujer_Comunas" ref="A1:N114" totalsRowShown="0">
+  <autoFilter ref="A1:N114" xr:uid="{83581875-578B-46F3-9E51-6B7C6929DEA6}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{5AF49BCB-8D68-49F7-89E7-8A664BCB39E8}" name="Código_Región"/>
+    <tableColumn id="2" xr3:uid="{F6512D12-2F19-4D66-955F-94BDEB612C10}" name="Región"/>
+    <tableColumn id="3" xr3:uid="{1DA15646-EDE4-4448-A470-A5F97650F818}" name="Id_Comuna"/>
+    <tableColumn id="4" xr3:uid="{25FDA8DD-E0E2-45EA-8636-E3B223F20B27}" name="Comuna"/>
+    <tableColumn id="5" xr3:uid="{8E44BE77-1D0F-4562-8DBC-2FAECFFC9161}" name="Nombre del Centro"/>
+    <tableColumn id="6" xr3:uid="{AF7E942B-D1CE-4E6D-B8C6-FFA9E8490CAE}" name="Ejecutor"/>
+    <tableColumn id="7" xr3:uid="{CC19CAE5-78E6-4471-B907-D1E8D0728DBE}" name="Cobertura Territorial"/>
+    <tableColumn id="8" xr3:uid="{6FA7298D-7FF1-443C-A32C-62E8B6CD335B}" name="Dirección"/>
+    <tableColumn id="9" xr3:uid="{7488A00D-A9F4-4B71-9220-8BDB52ED8D2B}" name="Tipo de atención"/>
+    <tableColumn id="10" xr3:uid="{80C8F0CB-F567-4F63-AD3C-3C2FBE939CA7}" name="Atención presencial"/>
+    <tableColumn id="11" xr3:uid="{5F9FB3E0-E1FC-49CC-A4C3-DE001C81AA5A}" name="Atención remota"/>
+    <tableColumn id="12" xr3:uid="{B338A7D4-9288-407D-A02B-EF3784DAEE51}" name="Teléfono" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{0FB5584E-0DB1-4A49-A60B-95F9E6D485D5}" name="Email"/>
+    <tableColumn id="14" xr3:uid="{9BDD898E-9349-4FDF-8A81-AA09655F4737}" name="Email 2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E8532DA9-EE9D-422B-B20D-CC3908E49EE7}" name="Alcaldesas_versus_Centros_Mujer" displayName="Alcaldesas_versus_Centros_Mujer" ref="E1:G114" totalsRowShown="0" headerRowDxfId="1" dataDxfId="6">
+  <autoFilter ref="E1:G114" xr:uid="{E8532DA9-EE9D-422B-B20D-CC3908E49EE7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3561124C-3C50-40EB-8DE1-3CFB1442C738}" name="Comuna" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{2927788F-D479-4DAE-B817-89E248607747}" name="Alcalde/sa 2016-2020" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{22C42E19-22FD-4321-BE54-CB2AC182ACA0}" name="Alcalde/sa 2021-2024" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D3CF1F51-5782-45B5-99DD-A5B3FCD18F9F}" name="Cobertura_Centros_Mujer" displayName="Cobertura_Centros_Mujer" ref="A1:C298" totalsRowShown="0" headerRowDxfId="0" dataDxfId="2">
+  <autoFilter ref="A1:C298" xr:uid="{D3CF1F51-5782-45B5-99DD-A5B3FCD18F9F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A4AD82B6-8117-40E7-8760-872CF445430E}" name="Id_Comuna" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{CEBCBAB5-A5A8-49E5-AE86-1F17191F0953}" name="Id_Cobertura" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{32042DEB-A926-48FD-955A-B630AAB580EF}" name="Comuna_Cubierta" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3842,12 +3984,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79FC1950-7268-4533-993A-0DC3B075444A}">
   <dimension ref="A1:N114"/>
   <sheetViews>
-    <sheetView topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="43.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8536,3299 +8685,4340 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE0EEB4-02A4-4CBE-8050-86FAAF4F3C91}">
-  <dimension ref="A1:C298"/>
+  <dimension ref="A1:G298"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>801</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1117</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="16" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="D1" s="17"/>
+      <c r="E1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14">
         <v>15101</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="14">
         <v>15101</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="E2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="14">
         <v>15101</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="14">
         <v>15102</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>1087</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14">
         <v>1101</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="14">
         <v>1101</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="E4" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14">
         <v>1107</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="14">
         <v>1107</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="E5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="14">
         <v>1401</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="14">
         <v>1401</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="E6" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14">
         <v>1401</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="14">
         <v>1404</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="14" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="E7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14">
         <v>1401</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="14">
         <v>1402</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="14" t="s">
         <v>916</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="E8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14">
         <v>1401</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="14">
         <v>1403</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="14" t="s">
         <v>917</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="E9" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14">
         <v>1401</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="14">
         <v>1405</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="14" t="s">
         <v>919</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="E10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
         <v>2101</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="14">
         <v>2101</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="E11" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>2101</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="14">
         <v>2104</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="14" t="s">
         <v>921</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="E12" s="15" t="s">
+        <v>838</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14">
         <v>2101</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="14">
         <v>2103</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="14" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="E13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14">
         <v>2101</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="14">
         <v>2102</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="14" t="s">
         <v>920</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="E14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
         <v>2201</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="14">
         <v>2201</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="14" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="E15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
         <v>2201</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="14">
         <v>2203</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="14" t="s">
         <v>923</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="E16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14">
         <v>2201</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="14">
         <v>2202</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="14" t="s">
         <v>922</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="14">
         <v>2301</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="14">
         <v>2301</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="E18" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14">
         <v>2301</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="14">
         <v>2302</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="14" t="s">
         <v>924</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="E19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="14">
         <v>3101</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="14">
         <v>3101</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="E20" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="14">
         <v>3101</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="14">
         <v>3102</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="14" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="E21" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="14">
         <v>3101</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="14">
         <v>3103</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="14" t="s">
         <v>926</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="E22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="14">
         <v>3301</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="14">
         <v>3301</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="E23" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="14">
         <v>3301</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="14">
         <v>3302</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="14" t="s">
         <v>928</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="E24" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="14">
         <v>3301</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="14">
         <v>3303</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="14" t="s">
         <v>929</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="E25" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="14">
         <v>3301</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="14">
         <v>3304</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="14" t="s">
         <v>930</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="E26" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="14">
         <v>3201</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="14">
         <v>3201</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="E27" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="14">
         <v>3201</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="14">
         <v>3202</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="14" t="s">
         <v>927</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="E28" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="14">
         <v>4101</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="14">
         <v>4101</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="14" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="E29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="14">
         <v>4101</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="14">
         <v>4106</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="14" t="s">
         <v>934</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="E30" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="14">
         <v>4101</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="14">
         <v>4105</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="14" t="s">
         <v>933</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="E31" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="14">
         <v>4201</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="14">
         <v>4201</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="E32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="14">
         <v>4201</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="14">
         <v>4204</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="14" t="s">
         <v>937</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="E33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="14">
         <v>4201</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="14">
         <v>4202</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="14" t="s">
         <v>935</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="E34" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="14">
         <v>4201</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="14">
         <v>4203</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="14" t="s">
         <v>936</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="E35" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="14">
         <v>4301</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="14">
         <v>4301</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="14" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="E36" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="14">
         <v>4301</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="14">
         <v>4303</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="14" t="s">
         <v>939</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="E37" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="14">
         <v>4301</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="14">
         <v>4302</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="14" t="s">
         <v>938</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="E38" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="14">
         <v>4301</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="14">
         <v>4305</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="14" t="s">
         <v>941</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="E39" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="14">
         <v>4301</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="14">
         <v>4304</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="14" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="E40" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="14">
         <v>4102</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="14">
         <v>4102</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="E41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="14">
         <v>4102</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="14">
         <v>4103</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="14" t="s">
         <v>931</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="E42" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="14">
         <v>4102</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="14">
         <v>4104</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="14" t="s">
         <v>932</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="E43" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="14">
         <v>5101</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="14">
         <v>5101</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="E44" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="14">
         <v>5701</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="14">
         <v>5701</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="14" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="E45" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="14">
         <v>5701</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="14">
         <v>5705</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="14" t="s">
         <v>960</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="E46" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="14">
         <v>5701</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="14">
         <v>5706</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="14" t="s">
         <v>961</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="E47" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="14">
         <v>5701</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="14">
         <v>5704</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="14" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="E48" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="14">
         <v>5301</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="14">
         <v>5301</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="E49" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="14">
         <v>5301</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="14">
         <v>5304</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="14" t="s">
         <v>946</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="E50" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="14">
         <v>5301</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="14">
         <v>5302</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="14" t="s">
         <v>944</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="E51" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="14">
         <v>5301</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="14">
         <v>5303</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="14" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="E52" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="14">
         <v>5401</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="14">
         <v>5402</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="14" t="s">
         <v>947</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="E53" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="14">
         <v>5401</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="14">
         <v>5404</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="14" t="s">
         <v>948</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="E54" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="14">
         <v>5401</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="14">
         <v>5401</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="E55" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="14">
         <v>5502</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="14">
         <v>5502</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="E56" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="14">
         <v>5502</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="14">
         <v>5503</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="14" t="s">
         <v>950</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="E57" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="14">
         <v>5502</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="14">
         <v>5506</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="14" t="s">
         <v>952</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="E58" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="14">
         <v>5502</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="14">
         <v>5504</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="14" t="s">
         <v>951</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="E59" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="14">
         <v>5103</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="14">
         <v>5103</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="E60" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="14">
         <v>5103</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="14">
         <v>5105</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="14" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="E61" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="14">
         <v>5103</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="14">
         <v>5107</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="14" t="s">
         <v>943</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="E62" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="14">
         <v>5804</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="14">
         <v>5804</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="E63" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="14">
         <v>5804</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="14">
         <v>5801</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="14" t="s">
         <v>962</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="E64" s="15" t="s">
+        <v>865</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="14">
         <v>5703</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="14">
         <v>5703</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="E65" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="14">
         <v>5703</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="14">
         <v>5702</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="14" t="s">
         <v>958</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="E66" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="14">
         <v>5601</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="14">
         <v>5601</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="14" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="E67" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="14">
         <v>5601</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="14">
         <v>5606</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="14" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="E68" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" s="14">
         <v>5601</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="14">
         <v>5603</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="14" t="s">
         <v>954</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
+      <c r="E69" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" s="14">
         <v>5601</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="14">
         <v>5605</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="14" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
+      <c r="E70" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" s="14">
         <v>5601</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="14">
         <v>5604</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="14" t="s">
         <v>955</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
+      <c r="E71" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" s="14">
         <v>5601</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="14">
         <v>5602</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="14" t="s">
         <v>953</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
+      <c r="E72" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" s="14">
         <v>5109</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="14">
         <v>5109</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
+      <c r="E73" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="14">
         <v>5802</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="14">
         <v>5802</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
+      <c r="E74" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="14">
         <v>5802</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="14">
         <v>5501</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="14" t="s">
         <v>949</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
+      <c r="E75" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="14">
         <v>5802</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="14">
         <v>5803</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="14" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
+      <c r="E76" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="14">
         <v>5201</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="14">
         <v>5201</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
+      <c r="E77" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="14">
         <v>13501</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="14">
         <v>13501</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="14" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
+      <c r="E78" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="14">
         <v>13501</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="14">
         <v>13504</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="14" t="s">
         <v>1078</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="E79" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="14">
         <v>13501</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="14">
         <v>13505</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="14" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
+      <c r="E80" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="14">
         <v>13122</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="14">
         <v>13122</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="14" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="E81" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="14">
         <v>13401</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="14">
         <v>13401</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="14" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83">
+      <c r="E82" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="14">
         <v>13402</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="14">
         <v>13402</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84">
+      <c r="E83" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="14">
         <v>13402</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="14">
         <v>13404</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="14" t="s">
         <v>1077</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85">
+      <c r="E84" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F84" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="14">
         <v>13119</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="14">
         <v>13119</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="14" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86">
+      <c r="E85" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="14">
         <v>13104</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="14">
         <v>13104</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87">
+      <c r="E86" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="14">
         <v>13104</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="14">
         <v>13107</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="14" t="s">
         <v>1066</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88">
+      <c r="E87" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="14">
         <v>13112</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="14">
         <v>13112</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="14" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89">
+      <c r="E88" s="15" t="s">
+        <v>890</v>
+      </c>
+      <c r="F88" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G88" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="14">
         <v>13125</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="14">
         <v>13125</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90">
+      <c r="E89" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G89" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="14">
         <v>13111</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="14">
         <v>13111</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="14" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91">
+      <c r="E90" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="F90" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="14">
         <v>13124</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="14">
         <v>13124</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92">
+      <c r="E91" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F91" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="14">
         <v>13601</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="14">
         <v>13601</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="14" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93">
+      <c r="E92" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="F92" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="14">
         <v>13601</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="14">
         <v>13605</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="14" t="s">
         <v>1081</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94">
+      <c r="E93" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="F93" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="14">
         <v>13116</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="14">
         <v>13116</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="14" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95">
+      <c r="E94" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F94" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="14">
         <v>13116</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="14">
         <v>13102</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="14" t="s">
         <v>1065</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96">
+      <c r="E95" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="14">
         <v>13301</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="14">
         <v>13301</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="14" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="E96" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F96" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="14">
         <v>13301</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="14">
         <v>13302</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="14" t="s">
         <v>1075</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="E97" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F97" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="14">
         <v>13301</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="14">
         <v>13303</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="14" t="s">
         <v>1076</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="E98" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="F98" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="14">
         <v>13121</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="14">
         <v>13121</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="14" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="E99" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F99" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="14">
         <v>13121</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="14">
         <v>13130</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="14" t="s">
         <v>1072</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="E100" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F100" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="14">
         <v>13201</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="14">
         <v>13201</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="E101" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="F101" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="14">
         <v>13201</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="14">
         <v>13202</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="14" t="s">
         <v>1073</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="E102" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F102" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="14">
         <v>13201</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="14">
         <v>13203</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="14" t="s">
         <v>1074</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104">
+      <c r="E103" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F103" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G103" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="14">
         <v>13101</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="14">
         <v>13101</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="14" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="E104" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F104" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="14">
         <v>13106</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="14">
         <v>13106</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="14" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="E105" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="14">
         <v>13123</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="14">
         <v>13123</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="14" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="E106" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="F106" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="14">
         <v>13123</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="14">
         <v>13120</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="14" t="s">
         <v>1070</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="E107" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="F107" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G107" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="14">
         <v>13123</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="14">
         <v>13113</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="14" t="s">
         <v>1069</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="E108" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="F108" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G108" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="14">
         <v>13117</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="14">
         <v>13117</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="E109" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="F109" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G109" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="14">
         <v>13105</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="14">
         <v>13105</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="E110" s="15" t="s">
+        <v>909</v>
+      </c>
+      <c r="F110" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G110" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="14">
         <v>13128</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="14">
         <v>13128</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="14" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="E111" s="15" t="s">
+        <v>912</v>
+      </c>
+      <c r="F111" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="14">
         <v>13110</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="14">
         <v>13110</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="E112" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F112" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G112" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="14">
         <v>13103</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="14">
         <v>13103</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="14" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="E113" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F113" s="15" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="14">
         <v>13126</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="14">
         <v>13126</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="E114" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F114" s="15" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="14">
         <v>13118</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="14">
         <v>13118</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="14">
         <v>13118</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="14">
         <v>13129</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="14" t="s">
         <v>1071</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="14">
         <v>13403</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="14">
         <v>13403</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="14">
         <v>13403</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="14">
         <v>13604</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="14" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="14">
         <v>13131</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="14">
         <v>13131</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="14" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="14">
         <v>13131</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="14">
         <v>13109</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="14" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="14">
         <v>13127</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="14">
         <v>13127</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="14" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="14">
         <v>13127</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="14">
         <v>13108</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="14" t="s">
         <v>1067</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="14">
         <v>13603</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="14">
         <v>13603</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="14" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="14">
         <v>13602</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="14">
         <v>13602</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="14" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="14">
         <v>13503</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="14">
         <v>13503</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="14">
         <v>6101</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="14">
         <v>6101</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="14">
         <v>6101</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="14">
         <v>6106</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="14" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="14">
         <v>6101</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="14">
         <v>6108</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="14" t="s">
         <v>966</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="14">
         <v>6301</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="14">
         <v>6301</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="14">
         <v>6301</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="14">
         <v>6303</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="14" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="14">
         <v>6115</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="14">
         <v>6115</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="14">
         <v>6115</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="14">
         <v>6109</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="14" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133">
+      <c r="A133" s="14">
         <v>6115</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="14">
         <v>6117</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="14">
         <v>6201</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="14">
         <v>6201</v>
       </c>
-      <c r="C134" t="s">
+      <c r="C134" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="14">
         <v>6201</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="14">
         <v>6204</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="14" t="s">
         <v>970</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="14">
         <v>6201</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="14">
         <v>6203</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C136" s="14" t="s">
         <v>969</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="14">
         <v>6201</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="14">
         <v>6205</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="14" t="s">
         <v>971</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="14">
         <v>6117</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="14">
         <v>6117</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139">
+      <c r="A139" s="14">
         <v>6117</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="14">
         <v>6107</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="14" t="s">
         <v>965</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140">
+      <c r="A140" s="14">
         <v>6117</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="14">
         <v>6113</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C140" s="14" t="s">
         <v>968</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="14">
         <v>6117</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="14">
         <v>6104</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="14" t="s">
         <v>963</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="14">
         <v>6310</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="14">
         <v>6310</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="14" t="s">
         <v>865</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143">
+      <c r="A143" s="14">
         <v>6310</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="14">
         <v>6304</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="14" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="14">
         <v>6310</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="14">
         <v>6302</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C144" s="14" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="14">
         <v>7301</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="14">
         <v>7301</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C145" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="14">
         <v>7301</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="14">
         <v>7305</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="14" t="s">
         <v>979</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="14">
         <v>7301</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="14">
         <v>7306</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="14" t="s">
         <v>980</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="14">
         <v>7301</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="14">
         <v>7308</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="14" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149">
+      <c r="A149" s="14">
         <v>7304</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="14">
         <v>7304</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C149" s="14" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="14">
         <v>7304</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="14">
         <v>7108</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C150" s="14" t="s">
         <v>974</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="14">
         <v>7304</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="14">
         <v>7307</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="14" t="s">
         <v>981</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="14">
         <v>7101</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="14">
         <v>7101</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="14">
         <v>7101</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="14">
         <v>7110</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="14" t="s">
         <v>976</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154">
+      <c r="A154" s="14">
         <v>7101</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="14">
         <v>7105</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="14">
         <v>7101</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="14">
         <v>7109</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C155" s="14" t="s">
         <v>975</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="14">
         <v>7101</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="14">
         <v>7106</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="14" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157">
+      <c r="A157" s="14">
         <v>7102</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="14">
         <v>7102</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="14">
         <v>7102</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="14">
         <v>7104</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C158" s="14" t="s">
         <v>973</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="14">
         <v>7406</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="14">
         <v>7406</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C159" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="14">
         <v>7406</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="14">
         <v>7407</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="14" t="s">
         <v>985</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="14">
         <v>7406</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="14">
         <v>7401</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="14" t="s">
         <v>983</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="14">
         <v>7404</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="14">
         <v>7404</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C162" s="14" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="14">
         <v>7404</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="14">
         <v>7405</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C163" s="14" t="s">
         <v>984</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="14">
         <v>7201</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="14">
         <v>7201</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C164" s="14" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="14">
         <v>7201</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="14">
         <v>7202</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="14" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="14">
         <v>7201</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="14">
         <v>7203</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C166" s="14" t="s">
         <v>978</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="14">
         <v>16101</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="14">
         <v>16103</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C167" s="14" t="s">
         <v>1008</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="14">
         <v>16101</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="14">
         <v>16101</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C168" s="14" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="14">
         <v>16101</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="14">
         <v>16302</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C169" s="14" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="14">
         <v>16101</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="14">
         <v>16106</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C170" s="14" t="s">
         <v>1011</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="14">
         <v>16101</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="14">
         <v>16102</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C171" s="14" t="s">
         <v>1005</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="14">
         <v>16301</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="14">
         <v>16301</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C172" s="14" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="14">
         <v>16301</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="14">
         <v>16305</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C173" s="14" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="14">
         <v>16301</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="14">
         <v>16303</v>
       </c>
-      <c r="C174" t="s">
+      <c r="C174" s="14" t="s">
         <v>1010</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="14">
         <v>16301</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="14">
         <v>16204</v>
       </c>
-      <c r="C175" t="s">
+      <c r="C175" s="14" t="s">
         <v>1009</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="14">
         <v>16301</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="14">
         <v>16304</v>
       </c>
-      <c r="C176" t="s">
+      <c r="C176" s="14" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="14">
         <v>16205</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="14">
         <v>16205</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C177" s="14" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="14">
         <v>16205</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="14">
         <v>16206</v>
       </c>
-      <c r="C178" t="s">
+      <c r="C178" s="14" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="14">
         <v>16205</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="14">
         <v>16207</v>
       </c>
-      <c r="C179" t="s">
+      <c r="C179" s="14" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="14">
         <v>16205</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="14">
         <v>16203</v>
       </c>
-      <c r="C180" t="s">
+      <c r="C180" s="14" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="14">
         <v>8305</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="14">
         <v>8305</v>
       </c>
-      <c r="C181" t="s">
+      <c r="C181" s="14" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="14">
         <v>8305</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="14">
         <v>8307</v>
       </c>
-      <c r="C182" t="s">
+      <c r="C182" s="14" t="s">
         <v>999</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="14">
         <v>8305</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="14">
         <v>8306</v>
       </c>
-      <c r="C183" t="s">
+      <c r="C183" s="14" t="s">
         <v>998</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="14">
         <v>8301</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="14">
         <v>8301</v>
       </c>
-      <c r="C184" t="s">
+      <c r="C184" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="14">
         <v>8301</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="14">
         <v>8304</v>
       </c>
-      <c r="C185" t="s">
+      <c r="C185" s="14" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="14">
         <v>8301</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="14">
         <v>8302</v>
       </c>
-      <c r="C186" t="s">
+      <c r="C186" s="14" t="s">
         <v>996</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="14">
         <v>8301</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="14">
         <v>8310</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="14" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="14">
         <v>8303</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="14">
         <v>8303</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C188" s="14" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="14">
         <v>8303</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="14">
         <v>8313</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C189" s="14" t="s">
         <v>1004</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="14">
         <v>8303</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="14">
         <v>16109</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C190" s="14" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="14">
         <v>8303</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="14">
         <v>8312</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C191" s="14" t="s">
         <v>1003</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="14">
         <v>8103</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="14">
         <v>8103</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C192" s="14" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="14">
         <v>8103</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="14">
         <v>8105</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C193" s="14" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="14">
         <v>8103</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="14">
         <v>8104</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C194" s="14" t="s">
         <v>986</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="14">
         <v>8203</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="14">
         <v>8203</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C195" s="14" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="14">
         <v>8203</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="14">
         <v>8204</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C196" s="14" t="s">
         <v>994</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="14">
         <v>8107</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="14">
         <v>8107</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C197" s="14" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198">
+      <c r="A198" s="14">
         <v>8107</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="14">
         <v>8111</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C198" s="14" t="s">
         <v>991</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199">
+      <c r="A199" s="14">
         <v>8107</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="14">
         <v>16207</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C199" s="14" t="s">
         <v>1013</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200">
+      <c r="A200" s="14">
         <v>8107</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="14">
         <v>16203</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C200" s="14" t="s">
         <v>1006</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="A201" s="14">
         <v>8102</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="14">
         <v>8102</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C201" s="14" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="A202" s="14">
         <v>8102</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="14">
         <v>8106</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C202" s="14" t="s">
         <v>988</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203">
+      <c r="A203" s="14">
         <v>8110</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="14">
         <v>8112</v>
       </c>
-      <c r="C203" t="s">
+      <c r="C203" s="14" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204">
+      <c r="A204" s="14">
         <v>8110</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="14">
         <v>8110</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C204" s="14" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="A205" s="14">
         <v>8205</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="14">
         <v>8205</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C205" s="14" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="A206" s="14">
         <v>8205</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="14">
         <v>8201</v>
       </c>
-      <c r="C206" t="s">
+      <c r="C206" s="14" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="A207" s="14">
         <v>8205</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="14">
         <v>8206</v>
       </c>
-      <c r="C207" t="s">
+      <c r="C207" s="14" t="s">
         <v>995</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208">
+      <c r="A208" s="14">
         <v>8101</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="14">
         <v>8101</v>
       </c>
-      <c r="C208" t="s">
+      <c r="C208" s="14" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209">
+      <c r="A209" s="14">
         <v>8101</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="14">
         <v>8108</v>
       </c>
-      <c r="C209" t="s">
+      <c r="C209" s="14" t="s">
         <v>989</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210">
+      <c r="A210" s="14">
         <v>8101</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="14">
         <v>8109</v>
       </c>
-      <c r="C210" t="s">
+      <c r="C210" s="14" t="s">
         <v>990</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211">
+      <c r="A211" s="14">
         <v>8202</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="14">
         <v>8202</v>
       </c>
-      <c r="C211" t="s">
+      <c r="C211" s="14" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212">
+      <c r="A212" s="14">
         <v>8314</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="14">
         <v>8314</v>
       </c>
-      <c r="C212" t="s">
+      <c r="C212" s="14" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A213">
+      <c r="A213" s="14">
         <v>8311</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="14">
         <v>8311</v>
       </c>
-      <c r="C213" t="s">
+      <c r="C213" s="14" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214">
+      <c r="A214" s="14">
         <v>8311</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="14">
         <v>8308</v>
       </c>
-      <c r="C214" t="s">
+      <c r="C214" s="14" t="s">
         <v>1000</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215">
+      <c r="A215" s="14">
         <v>8311</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="14">
         <v>8309</v>
       </c>
-      <c r="C215" t="s">
+      <c r="C215" s="14" t="s">
         <v>1001</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216">
+      <c r="A216" s="14">
         <v>8207</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="14">
         <v>8207</v>
       </c>
-      <c r="C216" t="s">
+      <c r="C216" s="14" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217">
+      <c r="A217" s="14">
         <v>9201</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="14">
         <v>9201</v>
       </c>
-      <c r="C217" t="s">
+      <c r="C217" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218">
+      <c r="A218" s="14">
         <v>9201</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="14">
         <v>9209</v>
       </c>
-      <c r="C218" t="s">
+      <c r="C218" s="14" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A219">
+      <c r="A219" s="14">
         <v>9201</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="14">
         <v>9206</v>
       </c>
-      <c r="C219" t="s">
+      <c r="C219" s="14" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A220">
+      <c r="A220" s="14">
         <v>9201</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="14">
         <v>9208</v>
       </c>
-      <c r="C220" t="s">
+      <c r="C220" s="14" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221">
+      <c r="A221" s="14">
         <v>9211</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="14">
         <v>9211</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C221" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="222" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A222">
+      <c r="A222" s="14">
         <v>9211</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="14">
         <v>9204</v>
       </c>
-      <c r="C222" t="s">
+      <c r="C222" s="14" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223">
+      <c r="A223" s="14">
         <v>9211</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="14">
         <v>9202</v>
       </c>
-      <c r="C223" t="s">
+      <c r="C223" s="14" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224">
+      <c r="A224" s="14">
         <v>9211</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="14">
         <v>9210</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C224" s="14" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225">
+      <c r="A225" s="14">
         <v>9211</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="14">
         <v>9207</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C225" s="14" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A226">
+      <c r="A226" s="14">
         <v>9108</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="14">
         <v>9108</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C226" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A227">
+      <c r="A227" s="14">
         <v>9108</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="14">
         <v>9113</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C227" s="14" t="s">
         <v>1021</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228">
+      <c r="A228" s="14">
         <v>9108</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="14">
         <v>9106</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C228" s="14" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A229">
+      <c r="A229" s="14">
         <v>9108</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="14">
         <v>9203</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C229" s="14" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A230">
+      <c r="A230" s="14">
         <v>9108</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="14">
         <v>9205</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C230" s="14" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A231">
+      <c r="A231" s="14">
         <v>9101</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="14">
         <v>9101</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C231" s="14" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A232">
+      <c r="A232" s="14">
         <v>9101</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="14">
         <v>9119</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C232" s="14" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233">
+      <c r="A233" s="14">
         <v>9111</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="14">
         <v>9111</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C233" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A234">
+      <c r="A234" s="14">
         <v>9111</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="14">
         <v>9121</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C234" s="14" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A235">
+      <c r="A235" s="14">
         <v>9111</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="14">
         <v>9117</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C235" s="14" t="s">
         <v>1025</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236">
+      <c r="A236" s="14">
         <v>9102</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="14">
         <v>9102</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C236" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A237">
+      <c r="A237" s="14">
         <v>9102</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="14">
         <v>9116</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C237" s="14" t="s">
         <v>1024</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238">
+      <c r="A238" s="14">
         <v>9105</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="14">
         <v>9105</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C238" s="14" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239">
+      <c r="A239" s="14">
         <v>9105</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="14">
         <v>9114</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C239" s="14" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240">
+      <c r="A240" s="14">
         <v>9105</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="14">
         <v>9118</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C240" s="14" t="s">
         <v>1026</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241">
+      <c r="A241" s="14">
         <v>9105</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="14">
         <v>9107</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C241" s="14" t="s">
         <v>1018</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242">
+      <c r="A242" s="14">
         <v>9120</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="14">
         <v>9120</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C242" s="14" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243">
+      <c r="A243" s="14">
         <v>9120</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="14">
         <v>9109</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C243" s="14" t="s">
         <v>1019</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244">
+      <c r="A244" s="14">
         <v>9120</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="14">
         <v>9115</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C244" s="14" t="s">
         <v>1023</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245">
+      <c r="A245" s="14">
         <v>9120</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="14">
         <v>9104</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C245" s="14" t="s">
         <v>1016</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246">
+      <c r="A246" s="14">
         <v>9112</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="14">
         <v>9112</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C246" s="14" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247">
+      <c r="A247" s="14">
         <v>9112</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="14">
         <v>9110</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C247" s="14" t="s">
         <v>1020</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248">
+      <c r="A248" s="14">
         <v>9112</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="14">
         <v>9103</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C248" s="14" t="s">
         <v>1015</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A249">
+      <c r="A249" s="14">
         <v>14101</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="14">
         <v>14101</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C249" s="14" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A250">
+      <c r="A250" s="14">
         <v>14101</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="14">
         <v>14102</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C250" s="14" t="s">
         <v>1082</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A251">
+      <c r="A251" s="14">
         <v>14201</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="14">
         <v>14201</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C251" s="14" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A252">
+      <c r="A252" s="14">
         <v>14201</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="14">
         <v>14204</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C252" s="14" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="14">
         <v>14201</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="14">
         <v>14203</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C253" s="14" t="s">
         <v>1085</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254">
+      <c r="A254" s="14">
         <v>14103</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="14">
         <v>14103</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C254" s="14" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255">
+      <c r="A255" s="14">
         <v>14103</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="14">
         <v>14105</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C255" s="14" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256">
+      <c r="A256" s="14">
         <v>14103</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="14">
         <v>14106</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C256" s="14" t="s">
         <v>1084</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257">
+      <c r="A257" s="14">
         <v>14108</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="14">
         <v>14108</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C257" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258">
+      <c r="A258" s="14">
         <v>14107</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="14">
         <v>14107</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C258" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259">
+      <c r="A259" s="14">
         <v>14202</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="14">
         <v>14202</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C259" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260">
+      <c r="A260" s="14">
         <v>10301</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="14">
         <v>10301</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C260" s="14" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261">
+      <c r="A261" s="14">
         <v>10301</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="14">
         <v>10303</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C261" s="14" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262">
+      <c r="A262" s="14">
         <v>10301</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="14">
         <v>10305</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C262" s="14" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263">
+      <c r="A263" s="14">
         <v>10301</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="14">
         <v>10302</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C263" s="14" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264">
+      <c r="A264" s="14">
         <v>10301</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="14">
         <v>10304</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C264" s="14" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265">
+      <c r="A265" s="14">
         <v>10301</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="14">
         <v>10306</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C265" s="14" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266">
+      <c r="A266" s="14">
         <v>10301</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="14">
         <v>10307</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C266" s="14" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267">
+      <c r="A267" s="14">
         <v>10101</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="14">
         <v>10101</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C267" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268">
+      <c r="A268" s="14">
         <v>10107</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="14">
         <v>10109</v>
       </c>
-      <c r="C268" t="s">
+      <c r="C268" s="14" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269">
+      <c r="A269" s="14">
         <v>10107</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="14">
         <v>10103</v>
       </c>
-      <c r="C269" t="s">
+      <c r="C269" s="14" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270">
+      <c r="A270" s="14">
         <v>10107</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="14">
         <v>10102</v>
       </c>
-      <c r="C270" t="s">
+      <c r="C270" s="14" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A271">
+      <c r="A271" s="14">
         <v>10107</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="14">
         <v>10108</v>
       </c>
-      <c r="C271" t="s">
+      <c r="C271" s="14" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A272">
+      <c r="A272" s="14">
         <v>10107</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="14">
         <v>10106</v>
       </c>
-      <c r="C272" t="s">
+      <c r="C272" s="14" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A273">
+      <c r="A273" s="14">
         <v>10107</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="14">
         <v>10104</v>
       </c>
-      <c r="C273" t="s">
+      <c r="C273" s="14" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A274">
+      <c r="A274" s="14">
         <v>10107</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="14">
         <v>10107</v>
       </c>
-      <c r="C274" t="s">
+      <c r="C274" s="14" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A275">
+      <c r="A275" s="14">
         <v>10107</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="14">
         <v>10105</v>
       </c>
-      <c r="C275" t="s">
+      <c r="C275" s="14" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A276">
+      <c r="A276" s="14">
         <v>10201</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="14">
         <v>10201</v>
       </c>
-      <c r="C276" t="s">
+      <c r="C276" s="14" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A277">
+      <c r="A277" s="14">
         <v>10201</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="14">
         <v>10202</v>
       </c>
-      <c r="C277" t="s">
+      <c r="C277" s="14" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278">
+      <c r="A278" s="14">
         <v>10201</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="14">
         <v>10209</v>
       </c>
-      <c r="C278" t="s">
+      <c r="C278" s="14" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279">
+      <c r="A279" s="14">
         <v>10201</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="14">
         <v>10205</v>
       </c>
-      <c r="C279" t="s">
+      <c r="C279" s="14" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280">
+      <c r="A280" s="14">
         <v>10201</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="14">
         <v>10204</v>
       </c>
-      <c r="C280" t="s">
+      <c r="C280" s="14" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281">
+      <c r="A281" s="14">
         <v>10201</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="14">
         <v>10210</v>
       </c>
-      <c r="C281" t="s">
+      <c r="C281" s="14" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282">
+      <c r="A282" s="14">
         <v>10201</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="14">
         <v>10206</v>
       </c>
-      <c r="C282" t="s">
+      <c r="C282" s="14" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283">
+      <c r="A283" s="14">
         <v>10201</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="14">
         <v>10203</v>
       </c>
-      <c r="C283" t="s">
+      <c r="C283" s="14" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284">
+      <c r="A284" s="14">
         <v>10201</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="14">
         <v>10207</v>
       </c>
-      <c r="C284" t="s">
+      <c r="C284" s="14" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285">
+      <c r="A285" s="14">
         <v>10201</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="14">
         <v>10208</v>
       </c>
-      <c r="C285" t="s">
+      <c r="C285" s="14" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286">
+      <c r="A286" s="14">
         <v>10404</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="14">
         <v>10404</v>
       </c>
-      <c r="C286" t="s">
+      <c r="C286" s="14" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287">
+      <c r="A287" s="14">
         <v>10404</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="14">
         <v>10402</v>
       </c>
-      <c r="C287" t="s">
+      <c r="C287" s="14" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288">
+      <c r="A288" s="14">
         <v>10404</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="14">
         <v>10401</v>
       </c>
-      <c r="C288" t="s">
+      <c r="C288" s="14" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289">
+      <c r="A289" s="14">
         <v>10403</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="14">
         <v>10403</v>
       </c>
-      <c r="C289" t="s">
+      <c r="C289" s="14" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290">
+      <c r="A290" s="14">
         <v>11101</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="14">
         <v>11101</v>
       </c>
-      <c r="C290" t="s">
+      <c r="C290" s="14" t="s">
         <v>909</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291">
+      <c r="A291" s="14">
         <v>11101</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="14">
         <v>11301</v>
       </c>
-      <c r="C291" t="s">
+      <c r="C291" s="14" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292">
+      <c r="A292" s="14">
         <v>11101</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="14">
         <v>11401</v>
       </c>
-      <c r="C292" t="s">
+      <c r="C292" s="14" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A293">
+      <c r="A293" s="14">
         <v>11201</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="14">
         <v>11201</v>
       </c>
-      <c r="C293" t="s">
+      <c r="C293" s="14" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A294">
+      <c r="A294" s="14">
         <v>11201</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="14">
         <v>11202</v>
       </c>
-      <c r="C294" t="s">
+      <c r="C294" s="14" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295">
+      <c r="A295" s="14">
         <v>11201</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="14">
         <v>11203</v>
       </c>
-      <c r="C295" t="s">
+      <c r="C295" s="14" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296">
+      <c r="A296" s="14">
         <v>12101</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="14">
         <v>12101</v>
       </c>
-      <c r="C296" t="s">
+      <c r="C296" s="14" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297">
+      <c r="A297" s="14">
         <v>12401</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="14">
         <v>12401</v>
       </c>
-      <c r="C297" t="s">
+      <c r="C297" s="14" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298">
+      <c r="A298" s="14">
         <v>12301</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="14">
         <v>12301</v>
       </c>
-      <c r="C298" t="s">
+      <c r="C298" s="14" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -11836,7 +13026,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E86CE49-C9DA-4FCA-A373-693D27D7330A}">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
